--- a/wgirisk_2023.xlsx
+++ b/wgirisk_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\DASHBOARD\networks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1387BD1C-ABD3-4187-9DB0-6136B048FE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1571B305-8356-497C-9267-2E89EA223267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{942AE615-B449-4AF9-A6E0-FFA9E1E6ABF9}"/>
+    <workbookView xWindow="1155" yWindow="3180" windowWidth="15330" windowHeight="10770" xr2:uid="{942AE615-B449-4AF9-A6E0-FFA9E1E6ABF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="431">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -1329,9 +1329,6 @@
   </si>
   <si>
     <t>iso3</t>
-  </si>
-  <si>
-    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1694,7 @@
   <dimension ref="A1:C215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3238,8 +3235,8 @@
       <c r="B140" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C140" t="s">
-        <v>431</v>
+      <c r="C140">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -3293,8 +3290,8 @@
       <c r="B145" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C145" t="s">
-        <v>431</v>
+      <c r="C145">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
